--- a/data/evaluation/evaluation_North_Spring_Lettuce.xlsx
+++ b/data/evaluation/evaluation_North_Spring_Lettuce.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1182.016857662699</v>
+        <v>1104.412145307684</v>
       </c>
       <c r="C4" t="n">
-        <v>2642587.327384542</v>
+        <v>2790505.642666146</v>
       </c>
       <c r="D4" t="n">
-        <v>1625.603680908893</v>
+        <v>1670.480662164679</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.2525928377333644</v>
+        <v>-0.322706479909459</v>
       </c>
     </row>
     <row r="5">
